--- a/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C74AAB6-67EA-42F3-9949-912AFDC103D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="135" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="1905" yWindow="135" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="OriginDatas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,22 +40,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>법사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력이 10 증가합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,14 +135,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성기사</t>
+    <t>Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paladin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6A44A-5798-4893-82F4-85C239DAC380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -591,52 +590,52 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -644,13 +643,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -658,13 +657,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DF1930-EE95-4E76-89C7-13B9DAA095B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="135" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OriginDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="OriginExcelDatas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -158,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DF1930-EE95-4E76-89C7-13B9DAA095B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A64260-59F7-4EF0-BD5C-767620DB645A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OriginExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력이 10 증가합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -126,10 +122,6 @@
     </r>
   </si>
   <si>
-    <t>Images/Character/엘프검사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Archer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,6 +139,46 @@
   </si>
   <si>
     <t>Warrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 전사 종족의 방어력이 [10/20/30] (2/4/6) 증가합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군 유닛의 마법방어력이 [10/20] (2/4) 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군 유닛의 지력이 [10/20] (2/4) 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 궁수 종족의 명중률이 [10/20] (2/4) 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평타 1번/2번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Thief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Paladin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Warrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Wizard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -560,13 +592,13 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
@@ -575,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -585,52 +617,52 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -638,13 +670,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -652,13 +684,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A64260-59F7-4EF0-BD5C-767620DB645A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="OriginExcelDatas" sheetId="1" r:id="rId1"/>
@@ -142,26 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">모든 전사 종족의 방어력이 [10/20/30] (2/4/6) 증가합니다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 아군 유닛의 마법방어력이 [10/20] (2/4) 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 아군 유닛의 지력이 [10/20] (2/4) 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 궁수 종족의 명중률이 [10/20] (2/4) 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평타 1번/2번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Origin/Archer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,12 +159,27 @@
   <si>
     <t>Images/Origin/Wizard</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수/아군의 크리티컬 확률이 [궁수7/궁수15/아군15] (1/3/5) 만큼 증가합니다.</t>
+  </si>
+  <si>
+    <t>도적의 기본공격이 [40%/85%] (2/4) 만큼 1번 더 때립니다.</t>
+  </si>
+  <si>
+    <t>아군의 마법공격력이 [20/45/80] (2/4/6) 만큼 증가합니다.</t>
+  </si>
+  <si>
+    <t>아군의 마법저항력이 [10/20] (2/4) 만큼 증가합니다.</t>
+  </si>
+  <si>
+    <t>아군의 방어력이 [10/20] (2/4) 만큼 증가합니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,17 +582,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
@@ -627,10 +621,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
@@ -643,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
@@ -659,10 +653,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -673,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -687,10 +681,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
@@ -141,26 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Origin/Archer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Origin/Thief</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Origin/Paladin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Origin/Warrior</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Origin/Wizard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>궁수/아군의 크리티컬 확률이 [궁수7/궁수15/아군15] (1/3/5) 만큼 증가합니다.</t>
   </si>
   <si>
@@ -174,6 +154,26 @@
   </si>
   <si>
     <t>아군의 방어력이 [10/20] (2/4) 만큼 증가합니다.</t>
+  </si>
+  <si>
+    <t>Images/Origin/Archer_On</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Thief_On</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Wizard_On</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Paladin_On</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Warrior_On</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,10 +621,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
@@ -637,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
@@ -653,10 +653,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -667,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -681,10 +681,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/OriginDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDED3A4-7EE5-4BAB-A707-F392A0E3B04C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OriginExcelDatas" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,11 +176,15 @@
     <t>Images/Origin/Warrior_On</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>도적의 공격력이 [40%/85%] (2/4) 만큼 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,13 +246,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +283,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,11 +601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,9 +613,9 @@
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -609,7 +628,7 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
@@ -626,7 +645,7 @@
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
@@ -637,12 +656,12 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
@@ -658,7 +677,7 @@
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
@@ -672,8 +691,8 @@
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -686,7 +705,7 @@
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -716,14 +735,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
